--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,13 +67,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -106,13 +106,13 @@
     <t>T001182</t>
   </si>
   <si>
-    <t>Orbita</t>
+    <t>Orbital incl tårekirtlen</t>
   </si>
   <si>
     <t>T001127</t>
   </si>
   <si>
-    <t>Øje</t>
+    <t>Øjeæble inklusiv nervus opticus og corpus vitreum</t>
   </si>
   <si>
     <t>T001145</t>
@@ -136,7 +136,7 @@
     <t>T000569</t>
   </si>
   <si>
-    <t>Mundhule i øvrigt</t>
+    <t>Mundhule</t>
   </si>
   <si>
     <t>T000600</t>
@@ -166,7 +166,7 @@
     <t>T000398</t>
   </si>
   <si>
-    <t>Lunge</t>
+    <t>Lunger</t>
   </si>
   <si>
     <t>T000670</t>
@@ -187,16 +187,22 @@
     <t>Tyktarm</t>
   </si>
   <si>
+    <t>T000706</t>
+  </si>
+  <si>
+    <t>Tarm</t>
+  </si>
+  <si>
     <t>T000638</t>
   </si>
   <si>
-    <t>Pancreas</t>
+    <t>Pankreas</t>
   </si>
   <si>
     <t>T000773</t>
   </si>
   <si>
-    <t>Nyrer</t>
+    <t>Nyrer og binyrer</t>
   </si>
   <si>
     <t>T000607</t>
@@ -229,6 +235,12 @@
     <t>Uterus</t>
   </si>
   <si>
+    <t>T000909</t>
+  </si>
+  <si>
+    <t>Genitalia interna</t>
+  </si>
+  <si>
     <t>T000010</t>
   </si>
   <si>
@@ -286,7 +298,7 @@
     <t>perikardieeksudat_lymfom</t>
   </si>
   <si>
-    <t>Perikardieeksudat med lymfomceller</t>
+    <t>Exudater med lymfom celler</t>
   </si>
   <si>
     <t>pleuraeksudat_lymfom</t>
@@ -562,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,18 +818,34 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -847,26 +875,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -879,10 +907,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -106,13 +106,13 @@
     <t>T001182</t>
   </si>
   <si>
-    <t>Orbital incl tårekirtlen</t>
+    <t>Orbita</t>
   </si>
   <si>
     <t>T001127</t>
   </si>
   <si>
-    <t>Øjeæble inklusiv nervus opticus og corpus vitreum</t>
+    <t>Øje</t>
   </si>
   <si>
     <t>T001145</t>
@@ -136,7 +136,7 @@
     <t>T000569</t>
   </si>
   <si>
-    <t>Mundhule</t>
+    <t>Mundhule i øvrigt</t>
   </si>
   <si>
     <t>T000600</t>
@@ -166,7 +166,7 @@
     <t>T000398</t>
   </si>
   <si>
-    <t>Lunger</t>
+    <t>Lunge</t>
   </si>
   <si>
     <t>T000670</t>
@@ -187,22 +187,16 @@
     <t>Tyktarm</t>
   </si>
   <si>
-    <t>T000706</t>
-  </si>
-  <si>
-    <t>Tarm</t>
-  </si>
-  <si>
     <t>T000638</t>
   </si>
   <si>
-    <t>Pankreas</t>
+    <t>Pancreas</t>
   </si>
   <si>
     <t>T000773</t>
   </si>
   <si>
-    <t>Nyrer og binyrer</t>
+    <t>Nyrer</t>
   </si>
   <si>
     <t>T000607</t>
@@ -235,12 +229,6 @@
     <t>Uterus</t>
   </si>
   <si>
-    <t>T000909</t>
-  </si>
-  <si>
-    <t>Genitalia interna</t>
-  </si>
-  <si>
     <t>T000010</t>
   </si>
   <si>
@@ -298,7 +286,7 @@
     <t>perikardieeksudat_lymfom</t>
   </si>
   <si>
-    <t>Exudater med lymfom celler</t>
+    <t>Perikardieeksudat med lymfomceller</t>
   </si>
   <si>
     <t>pleuraeksudat_lymfom</t>
@@ -574,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,34 +806,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -875,26 +847,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +879,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-LocationExtranodalFemale.xlsx
+++ b/fhir/ValueSet-LocationExtranodalFemale.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
